--- a/team_specific_matrix/High Point_A.xlsx
+++ b/team_specific_matrix/High Point_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1687116564417178</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="C2">
-        <v>0.6380368098159509</v>
+        <v>0.6283422459893048</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009202453987730062</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1319018404907975</v>
+        <v>0.1310160427807487</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05214723926380368</v>
+        <v>0.053475935828877</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00881057268722467</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="C3">
-        <v>0.06167400881057269</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.013215859030837</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.004405286343612335</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="P3">
-        <v>0.7665198237885462</v>
+        <v>0.7607843137254902</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.145374449339207</v>
+        <v>0.1450980392156863</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0425531914893617</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5957446808510638</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3617021276595745</v>
+        <v>0.3272727272727273</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04455445544554455</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01485148514851485</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03465346534653466</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2871287128712871</v>
+        <v>0.2901785714285715</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0396039603960396</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1435643564356436</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="R6">
-        <v>0.1089108910891089</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="S6">
-        <v>0.3267326732673267</v>
+        <v>0.3303571428571428</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1693989071038251</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01639344262295082</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04371584699453552</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1912568306010929</v>
+        <v>0.1971153846153846</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03825136612021858</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1475409836065574</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="R7">
-        <v>0.07103825136612021</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.3224043715846995</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1219512195121951</v>
+        <v>0.1180400890868597</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02682926829268293</v>
+        <v>0.0311804008908686</v>
       </c>
       <c r="E8">
-        <v>0.002439024390243902</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="F8">
-        <v>0.06097560975609756</v>
+        <v>0.06013363028953229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1365853658536585</v>
+        <v>0.1358574610244989</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01951219512195122</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2146341463414634</v>
+        <v>0.2160356347438753</v>
       </c>
       <c r="R8">
-        <v>0.1121951219512195</v>
+        <v>0.1158129175946548</v>
       </c>
       <c r="S8">
-        <v>0.3048780487804878</v>
+        <v>0.3028953229398664</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1417322834645669</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02362204724409449</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07874015748031496</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08661417322834646</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02362204724409449</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2204724409448819</v>
+        <v>0.2418300653594771</v>
       </c>
       <c r="R9">
-        <v>0.1023622047244094</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="S9">
-        <v>0.3228346456692913</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1416893732970027</v>
+        <v>0.1471048513302035</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02452316076294278</v>
+        <v>0.02269170579029734</v>
       </c>
       <c r="E10">
-        <v>0.00181653042688465</v>
+        <v>0.001564945226917058</v>
       </c>
       <c r="F10">
-        <v>0.08083560399636694</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1498637602179836</v>
+        <v>0.1517996870109546</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01907356948228883</v>
+        <v>0.01721439749608764</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2025431425976385</v>
+        <v>0.1964006259780908</v>
       </c>
       <c r="R10">
-        <v>0.07901907356948229</v>
+        <v>0.08528951486697965</v>
       </c>
       <c r="S10">
-        <v>0.3006357856494096</v>
+        <v>0.3028169014084507</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1660377358490566</v>
+        <v>0.1601307189542484</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09056603773584905</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="K11">
-        <v>0.2226415094339623</v>
+        <v>0.2189542483660131</v>
       </c>
       <c r="L11">
-        <v>0.5132075471698113</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007547169811320755</v>
+        <v>0.006535947712418301</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7857142857142857</v>
+        <v>0.7901234567901234</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1642857142857143</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="K12">
-        <v>0.01428571428571429</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
-        <v>0.02142857142857143</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01428571428571429</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7708333333333334</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2083333333333333</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02083333333333333</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005681818181818182</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1704545454545454</v>
+        <v>0.16751269035533</v>
       </c>
       <c r="I15">
-        <v>0.03409090909090909</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="J15">
-        <v>0.3409090909090909</v>
+        <v>0.3350253807106599</v>
       </c>
       <c r="K15">
-        <v>0.04545454545454546</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02840909090909091</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04545454545454546</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3295454545454545</v>
+        <v>0.3248730964467005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0423728813559322</v>
+        <v>0.04089219330855019</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1991525423728814</v>
+        <v>0.1970260223048327</v>
       </c>
       <c r="I16">
-        <v>0.05084745762711865</v>
+        <v>0.06691449814126393</v>
       </c>
       <c r="J16">
-        <v>0.4322033898305085</v>
+        <v>0.4163568773234201</v>
       </c>
       <c r="K16">
-        <v>0.09322033898305085</v>
+        <v>0.09293680297397769</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02542372881355932</v>
+        <v>0.02973977695167286</v>
       </c>
       <c r="N16">
-        <v>0.00423728813559322</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="O16">
-        <v>0.03813559322033899</v>
+        <v>0.03345724907063197</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1144067796610169</v>
+        <v>0.1189591078066914</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02290076335877863</v>
+        <v>0.02031602708803612</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1959287531806616</v>
+        <v>0.1941309255079007</v>
       </c>
       <c r="I17">
-        <v>0.07888040712468193</v>
+        <v>0.08126410835214447</v>
       </c>
       <c r="J17">
-        <v>0.4274809160305343</v>
+        <v>0.4243792325056434</v>
       </c>
       <c r="K17">
-        <v>0.09669211195928754</v>
+        <v>0.09932279909706546</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02035623409669211</v>
+        <v>0.02031602708803612</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05343511450381679</v>
+        <v>0.05417607223476298</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1043256997455471</v>
+        <v>0.1060948081264108</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01704545454545454</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2159090909090909</v>
+        <v>0.2087378640776699</v>
       </c>
       <c r="I18">
-        <v>0.07954545454545454</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="J18">
-        <v>0.3579545454545455</v>
+        <v>0.383495145631068</v>
       </c>
       <c r="K18">
-        <v>0.1079545454545455</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02840909090909091</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="N18">
-        <v>0.005681818181818182</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O18">
-        <v>0.05681818181818182</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1306818181818182</v>
+        <v>0.1213592233009709</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01742919389978214</v>
+        <v>0.01717557251908397</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2331154684095861</v>
+        <v>0.2194656488549618</v>
       </c>
       <c r="I19">
-        <v>0.07298474945533769</v>
+        <v>0.07538167938931298</v>
       </c>
       <c r="J19">
-        <v>0.3616557734204793</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="K19">
-        <v>0.1274509803921569</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02941176470588235</v>
+        <v>0.02862595419847328</v>
       </c>
       <c r="N19">
-        <v>0.002178649237472767</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="O19">
-        <v>0.06318082788671024</v>
+        <v>0.06202290076335878</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09259259259259259</v>
+        <v>0.0916030534351145</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/High Point_A.xlsx
+++ b/team_specific_matrix/High Point_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1711229946524064</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="C2">
-        <v>0.6283422459893048</v>
+        <v>0.6418269230769231</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0160427807486631</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1310160427807487</v>
+        <v>0.1274038461538461</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.053475935828877</v>
+        <v>0.05288461538461538</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007843137254901961</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C3">
-        <v>0.05882352941176471</v>
+        <v>0.05862068965517241</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02352941176470588</v>
+        <v>0.02413793103448276</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.00392156862745098</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="P3">
-        <v>0.7607843137254902</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1450980392156863</v>
+        <v>0.1482758620689655</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03636363636363636</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3272727272727273</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04017857142857143</v>
+        <v>0.04280155642023346</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01339285714285714</v>
+        <v>0.01556420233463035</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04910714285714286</v>
+        <v>0.05447470817120623</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2901785714285715</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04017857142857143</v>
+        <v>0.03891050583657588</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1339285714285714</v>
+        <v>0.1439688715953307</v>
       </c>
       <c r="R6">
-        <v>0.1026785714285714</v>
+        <v>0.0933852140077821</v>
       </c>
       <c r="S6">
-        <v>0.3303571428571428</v>
+        <v>0.3073929961089494</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1538461538461539</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02403846153846154</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03846153846153846</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1971153846153846</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03365384615384615</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1490384615384615</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="S7">
-        <v>0.3269230769230769</v>
+        <v>0.3203463203463203</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1180400890868597</v>
+        <v>0.116600790513834</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0311804008908686</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="E8">
-        <v>0.0022271714922049</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="F8">
-        <v>0.06013363028953229</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1358574610244989</v>
+        <v>0.1264822134387352</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0178173719376392</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2160356347438753</v>
+        <v>0.199604743083004</v>
       </c>
       <c r="R8">
-        <v>0.1158129175946548</v>
+        <v>0.116600790513834</v>
       </c>
       <c r="S8">
-        <v>0.3028953229398664</v>
+        <v>0.3221343873517787</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1372549019607843</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0261437908496732</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07843137254901961</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08496732026143791</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03267973856209151</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2418300653594771</v>
+        <v>0.2514970059880239</v>
       </c>
       <c r="R9">
-        <v>0.08496732026143791</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="S9">
-        <v>0.3137254901960784</v>
+        <v>0.2994011976047904</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1471048513302035</v>
+        <v>0.1496118560338744</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02269170579029734</v>
+        <v>0.02117148906139732</v>
       </c>
       <c r="E10">
-        <v>0.001564945226917058</v>
+        <v>0.001411432604093155</v>
       </c>
       <c r="F10">
-        <v>0.07511737089201878</v>
+        <v>0.07198306280875089</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1517996870109546</v>
+        <v>0.1425546930134086</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01721439749608764</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1964006259780908</v>
+        <v>0.1961891319689485</v>
       </c>
       <c r="R10">
-        <v>0.08528951486697965</v>
+        <v>0.08962597035991532</v>
       </c>
       <c r="S10">
-        <v>0.3028169014084507</v>
+        <v>0.3091037402964009</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1601307189542484</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09477124183006536</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K11">
-        <v>0.2189542483660131</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L11">
-        <v>0.5196078431372549</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006535947712418301</v>
+        <v>0.008474576271186441</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7901234567901234</v>
+        <v>0.765625</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.154320987654321</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.01234567901234568</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="L12">
-        <v>0.01851851851851852</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02469135802469136</v>
+        <v>0.02604166666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7454545454545455</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2363636363636364</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01015228426395939</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.16751269035533</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="I15">
-        <v>0.04060913705583756</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="J15">
-        <v>0.3350253807106599</v>
+        <v>0.3259911894273128</v>
       </c>
       <c r="K15">
-        <v>0.04060913705583756</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02538071065989848</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05583756345177665</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3248730964467005</v>
+        <v>0.3392070484581498</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04089219330855019</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1970260223048327</v>
+        <v>0.2006688963210702</v>
       </c>
       <c r="I16">
-        <v>0.06691449814126393</v>
+        <v>0.07023411371237458</v>
       </c>
       <c r="J16">
-        <v>0.4163568773234201</v>
+        <v>0.4046822742474916</v>
       </c>
       <c r="K16">
-        <v>0.09293680297397769</v>
+        <v>0.09364548494983277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02973977695167286</v>
+        <v>0.02675585284280936</v>
       </c>
       <c r="N16">
-        <v>0.003717472118959108</v>
+        <v>0.003344481605351171</v>
       </c>
       <c r="O16">
-        <v>0.03345724907063197</v>
+        <v>0.03678929765886288</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1189591078066914</v>
+        <v>0.1237458193979933</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02031602708803612</v>
+        <v>0.02254098360655738</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1941309255079007</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="I17">
-        <v>0.08126410835214447</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="J17">
-        <v>0.4243792325056434</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="K17">
-        <v>0.09932279909706546</v>
+        <v>0.09426229508196721</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02031602708803612</v>
+        <v>0.02254098360655738</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002049180327868853</v>
       </c>
       <c r="O17">
-        <v>0.05417607223476298</v>
+        <v>0.05122950819672131</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1060948081264108</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01941747572815534</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2087378640776699</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I18">
-        <v>0.07281553398058252</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="J18">
-        <v>0.383495145631068</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="K18">
-        <v>0.1116504854368932</v>
+        <v>0.1239316239316239</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02912621359223301</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="N18">
-        <v>0.004854368932038835</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O18">
-        <v>0.04854368932038835</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1213592233009709</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01717557251908397</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2194656488549618</v>
+        <v>0.2210084033613445</v>
       </c>
       <c r="I19">
-        <v>0.07538167938931298</v>
+        <v>0.073109243697479</v>
       </c>
       <c r="J19">
-        <v>0.3740458015267176</v>
+        <v>0.3722689075630252</v>
       </c>
       <c r="K19">
-        <v>0.1297709923664122</v>
+        <v>0.1336134453781513</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02862595419847328</v>
+        <v>0.02605042016806723</v>
       </c>
       <c r="N19">
-        <v>0.001908396946564885</v>
+        <v>0.001680672268907563</v>
       </c>
       <c r="O19">
-        <v>0.06202290076335878</v>
+        <v>0.06134453781512605</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0916030534351145</v>
+        <v>0.08991596638655462</v>
       </c>
     </row>
   </sheetData>
